--- a/PM_29_12_2020/Progress Monitoring Kishoregonj/Package Histry.xlsx
+++ b/PM_29_12_2020/Progress Monitoring Kishoregonj/Package Histry.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="131">
   <si>
     <t>Haor Flood Management &amp; Livelihood Improvement Project</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>KISH/PW-27</t>
-  </si>
-  <si>
-    <t>KISH/PW-28</t>
   </si>
   <si>
     <t>Hobigonj O&amp;M Division:</t>
@@ -413,6 +410,18 @@
   </si>
   <si>
     <t>``</t>
+  </si>
+  <si>
+    <t>KISH/PW-28 Lot-1</t>
+  </si>
+  <si>
+    <t>KISH/PW-28 Lot-2</t>
+  </si>
+  <si>
+    <t>KISH/PW-28 Lot-3</t>
+  </si>
+  <si>
+    <t>KISH/PW-28 Lot-4</t>
   </si>
 </sst>
 </file>
@@ -454,12 +463,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -511,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -563,6 +578,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -871,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="145" zoomScaleNormal="70" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="145" zoomScaleNormal="70" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,26 +910,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -929,7 +950,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>7</v>
@@ -1420,446 +1441,505 @@
         <v>401813</v>
       </c>
       <c r="G32" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="20" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>28</v>
-      </c>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="21">
+        <v>43391</v>
+      </c>
+      <c r="D33" s="21">
+        <v>43493</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20">
+        <v>237427</v>
+      </c>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="21">
+        <v>43391</v>
+      </c>
+      <c r="D34" s="21">
+        <v>43493</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20">
+        <v>234840</v>
+      </c>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="7">
+        <v>43391</v>
+      </c>
+      <c r="D35" s="7">
+        <v>43493</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5">
+        <v>2377427</v>
+      </c>
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="21">
+        <v>43391</v>
+      </c>
+      <c r="D36" s="21">
+        <v>43493</v>
+      </c>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20">
+        <v>238063</v>
+      </c>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="7">
-        <v>43391</v>
-      </c>
-      <c r="D33" s="7">
-        <v>43493</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5">
-        <v>2377427</v>
-      </c>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="13"/>
-    </row>
-    <row r="35" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>29</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="15">
-        <v>43382</v>
-      </c>
-      <c r="D35" s="15">
-        <v>43447</v>
-      </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="5">
-        <v>233923</v>
-      </c>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>30</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="7">
-        <v>43382</v>
-      </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="5">
-        <v>233924</v>
-      </c>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>31</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>32</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="7">
-        <v>43058</v>
-      </c>
-      <c r="D38" s="7">
-        <v>43101</v>
-      </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="5">
-        <v>139301</v>
-      </c>
-      <c r="G38" s="5"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="13"/>
     </row>
     <row r="39" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="7">
-        <v>42998</v>
-      </c>
-      <c r="D39" s="7">
-        <v>43142</v>
+        <v>37</v>
+      </c>
+      <c r="C39" s="15">
+        <v>43382</v>
+      </c>
+      <c r="D39" s="15">
+        <v>43447</v>
       </c>
       <c r="E39" s="16"/>
       <c r="F39" s="5">
-        <v>121836</v>
-      </c>
-      <c r="G39" s="5"/>
+        <v>233923</v>
+      </c>
+      <c r="G39" s="6"/>
     </row>
     <row r="40" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C40" s="7">
-        <v>43052</v>
-      </c>
-      <c r="D40" s="7">
-        <v>43109</v>
-      </c>
+        <v>43382</v>
+      </c>
+      <c r="D40" s="5"/>
       <c r="E40" s="16"/>
       <c r="F40" s="5">
-        <v>137007</v>
+        <v>233924</v>
       </c>
       <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>35</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="7">
-        <v>42998</v>
-      </c>
-      <c r="D41" s="7">
+        <v>31</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>32</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>43058</v>
+      </c>
+      <c r="D42" s="7">
         <v>43101</v>
       </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="5">
-        <v>121838</v>
-      </c>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="5">
+        <v>139301</v>
+      </c>
+      <c r="G42" s="5"/>
     </row>
     <row r="43" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>36</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>45</v>
+        <v>33</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="C43" s="7">
-        <v>43037</v>
+        <v>42998</v>
       </c>
       <c r="D43" s="7">
-        <v>43130</v>
+        <v>43142</v>
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="5">
-        <v>132568</v>
+        <v>121836</v>
       </c>
       <c r="G43" s="5"/>
     </row>
     <row r="44" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>37</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="C44" s="7">
-        <v>43122</v>
+        <v>43052</v>
       </c>
       <c r="D44" s="7">
-        <v>43242</v>
+        <v>43109</v>
       </c>
       <c r="E44" s="16"/>
       <c r="F44" s="5">
-        <v>156940</v>
+        <v>137007</v>
       </c>
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C45" s="7">
-        <v>43122</v>
+        <v>42998</v>
       </c>
       <c r="D45" s="7">
-        <v>43242</v>
+        <v>43101</v>
       </c>
       <c r="E45" s="16"/>
       <c r="F45" s="5">
-        <v>156933</v>
+        <v>121838</v>
       </c>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
-        <v>39</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="7">
-        <v>43404</v>
-      </c>
-      <c r="D46" s="7">
-        <v>43482</v>
-      </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="5">
-        <v>234841</v>
-      </c>
-      <c r="G46" s="5"/>
-    </row>
+    <row r="46" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
-        <v>40</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="5">
-        <v>234838</v>
-      </c>
-      <c r="G47" s="5"/>
+      <c r="A47" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
     </row>
     <row r="48" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C48" s="7">
-        <v>43404</v>
+        <v>43037</v>
       </c>
       <c r="D48" s="7">
-        <v>43500</v>
+        <v>43130</v>
       </c>
       <c r="E48" s="16"/>
       <c r="F48" s="5">
-        <v>234837</v>
+        <v>132568</v>
       </c>
       <c r="G48" s="5"/>
     </row>
     <row r="49" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="C49" s="7">
+        <v>43122</v>
+      </c>
       <c r="D49" s="7">
-        <v>43130</v>
+        <v>43242</v>
       </c>
       <c r="E49" s="16"/>
       <c r="F49" s="5">
-        <v>132585</v>
+        <v>156940</v>
       </c>
       <c r="G49" s="5"/>
-      <c r="O49" s="1" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="50" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="C50" s="7">
+        <v>43122</v>
+      </c>
+      <c r="D50" s="7">
+        <v>43242</v>
+      </c>
+      <c r="E50" s="16"/>
       <c r="F50" s="5">
-        <v>368829</v>
+        <v>156933</v>
       </c>
       <c r="G50" s="5"/>
     </row>
     <row r="51" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
+      <c r="A51" s="5">
+        <v>39</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="7">
+        <v>43404</v>
+      </c>
+      <c r="D51" s="7">
+        <v>43482</v>
+      </c>
+      <c r="E51" s="16"/>
+      <c r="F51" s="5">
+        <v>234841</v>
+      </c>
+      <c r="G51" s="5"/>
     </row>
     <row r="52" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
+      <c r="A52" s="5">
+        <v>40</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="5">
+        <v>234838</v>
+      </c>
+      <c r="G52" s="5"/>
     </row>
     <row r="53" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <v>44</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="15">
-        <v>43435</v>
+        <v>41</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="7">
+        <v>43404</v>
+      </c>
+      <c r="D53" s="7">
+        <v>43500</v>
       </c>
       <c r="E53" s="16"/>
-      <c r="F53" s="14">
-        <v>233210</v>
-      </c>
-      <c r="G53" s="14"/>
+      <c r="F53" s="5">
+        <v>234837</v>
+      </c>
+      <c r="G53" s="5"/>
     </row>
     <row r="54" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
-        <v>45</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>54</v>
+        <v>42</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="7">
-        <v>43452</v>
+        <v>43130</v>
       </c>
       <c r="E54" s="16"/>
       <c r="F54" s="5">
-        <v>233212</v>
+        <v>132585</v>
       </c>
       <c r="G54" s="5"/>
+      <c r="O54" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="55" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
-        <v>46</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>55</v>
+        <v>43</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="C55" s="5"/>
-      <c r="D55" s="7">
-        <v>43461</v>
-      </c>
-      <c r="E55" s="16"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
       <c r="F55" s="5">
-        <v>243880</v>
+        <v>368829</v>
       </c>
       <c r="G55" s="5"/>
     </row>
     <row r="56" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
-        <v>47</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="7">
-        <v>43452</v>
-      </c>
-      <c r="E56" s="16"/>
-      <c r="F56" s="5">
-        <v>235750</v>
-      </c>
-      <c r="G56" s="5"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
     </row>
     <row r="57" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
-        <v>48</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="5">
-        <v>268733</v>
-      </c>
-      <c r="G57" s="5"/>
+      <c r="A57" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
     </row>
     <row r="58" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
+        <v>44</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="15">
+        <v>43435</v>
+      </c>
+      <c r="E58" s="16"/>
+      <c r="F58" s="14">
+        <v>233210</v>
+      </c>
+      <c r="G58" s="14"/>
+    </row>
+    <row r="59" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>45</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="7">
+        <v>43452</v>
+      </c>
+      <c r="E59" s="16"/>
+      <c r="F59" s="5">
+        <v>233212</v>
+      </c>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>46</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="7">
+        <v>43461</v>
+      </c>
+      <c r="E60" s="16"/>
+      <c r="F60" s="5">
+        <v>243880</v>
+      </c>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>47</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="7">
+        <v>43452</v>
+      </c>
+      <c r="E61" s="16"/>
+      <c r="F61" s="5">
+        <v>235750</v>
+      </c>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>48</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="5">
+        <v>268733</v>
+      </c>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
         <v>49</v>
       </c>
-      <c r="B58" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="7">
+      <c r="B63" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="7">
         <v>43474</v>
       </c>
-      <c r="E58" s="16"/>
-      <c r="F58" s="5">
+      <c r="E63" s="16"/>
+      <c r="F63" s="5">
         <v>254188</v>
       </c>
-      <c r="G58" s="5"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1905,16 +1985,16 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>64</v>
-      </c>
-      <c r="E1" t="s">
-        <v>65</v>
       </c>
       <c r="F1">
         <v>1</v>
@@ -1923,7 +2003,7 @@
         <v>870345.75300000003</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I1">
         <v>870345.75300000003</v>
@@ -1934,16 +2014,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
         <v>67</v>
       </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>68</v>
-      </c>
-      <c r="E2" t="s">
-        <v>69</v>
       </c>
       <c r="F2">
         <v>7</v>
@@ -1952,7 +2032,7 @@
         <v>760.01499999999999</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I2">
         <v>5320.1049999999996</v>
@@ -1963,16 +2043,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
         <v>71</v>
       </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>72</v>
-      </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3">
         <v>7</v>
@@ -1981,7 +2061,7 @@
         <v>67.411000000000001</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I3">
         <v>471.87700000000001</v>
@@ -1992,16 +2072,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
         <v>74</v>
       </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" t="s">
-        <v>75</v>
-      </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4">
         <v>236</v>
@@ -2010,7 +2090,7 @@
         <v>367.30099999999999</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I4">
         <v>86683.035999999993</v>
@@ -2021,16 +2101,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
         <v>77</v>
       </c>
-      <c r="C5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>78</v>
-      </c>
-      <c r="E5" t="s">
-        <v>79</v>
       </c>
       <c r="F5">
         <v>4452.1499999999996</v>
@@ -2039,7 +2119,7 @@
         <v>198.73099999999999</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I5">
         <v>884780.22199999995</v>
@@ -2050,16 +2130,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
         <v>81</v>
       </c>
-      <c r="C6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" t="s">
-        <v>82</v>
-      </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6">
         <v>4452.1499999999996</v>
@@ -2068,7 +2148,7 @@
         <v>198.78100000000001</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I6">
         <v>885002.82900000003</v>
@@ -2079,16 +2159,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
         <v>84</v>
       </c>
-      <c r="C7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" t="s">
-        <v>85</v>
-      </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F7">
         <v>304227.48</v>
@@ -2097,7 +2177,7 @@
         <v>126.432</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I7">
         <v>38464088.751000002</v>
@@ -2108,16 +2188,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" t="s">
         <v>87</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>88</v>
       </c>
-      <c r="D8" t="s">
-        <v>89</v>
-      </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8">
         <v>155695</v>
@@ -2126,7 +2206,7 @@
         <v>25.552</v>
       </c>
       <c r="H8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I8">
         <v>3978318.64</v>
@@ -2137,16 +2217,16 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
         <v>91</v>
       </c>
-      <c r="C9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" t="s">
-        <v>92</v>
-      </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9">
         <v>4840.8</v>
@@ -2155,7 +2235,7 @@
         <v>214.316</v>
       </c>
       <c r="H9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I9">
         <v>1037460.893</v>
@@ -2166,16 +2246,16 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" t="s">
         <v>94</v>
       </c>
-      <c r="C10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" t="s">
-        <v>95</v>
-      </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F10">
         <v>234.38</v>
@@ -2184,7 +2264,7 @@
         <v>958.08199999999999</v>
       </c>
       <c r="H10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I10">
         <v>224555.25899999999</v>
@@ -2195,16 +2275,16 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" t="s">
         <v>97</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>98</v>
       </c>
-      <c r="D11" t="s">
-        <v>99</v>
-      </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11">
         <v>78.13</v>
@@ -2213,7 +2293,7 @@
         <v>859.88199999999995</v>
       </c>
       <c r="H11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I11">
         <v>67182.581000000006</v>
@@ -2224,16 +2304,16 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" t="s">
         <v>101</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>102</v>
       </c>
-      <c r="D12" t="s">
-        <v>103</v>
-      </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F12">
         <v>55.77</v>
@@ -2242,7 +2322,7 @@
         <v>1267.5809999999999</v>
       </c>
       <c r="H12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I12">
         <v>70692.991999999998</v>
@@ -2250,19 +2330,19 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" t="s">
         <v>105</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>106</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>107</v>
       </c>
-      <c r="D13" t="s">
-        <v>108</v>
-      </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13">
         <v>27.885000000000002</v>
@@ -2271,7 +2351,7 @@
         <v>4563.2209999999995</v>
       </c>
       <c r="H13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I13">
         <v>127245.41800000001</v>
@@ -2279,19 +2359,19 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" t="s">
         <v>110</v>
       </c>
-      <c r="B14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>111</v>
       </c>
-      <c r="D14" t="s">
-        <v>112</v>
-      </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F14">
         <v>27.885000000000002</v>
@@ -2300,7 +2380,7 @@
         <v>5026.9809999999998</v>
       </c>
       <c r="H14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I14">
         <v>140177.36499999999</v>
@@ -2311,16 +2391,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" t="s">
         <v>114</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>115</v>
       </c>
-      <c r="D15" t="s">
-        <v>116</v>
-      </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15">
         <v>5888</v>
@@ -2329,7 +2409,7 @@
         <v>371.70800000000003</v>
       </c>
       <c r="H15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I15">
         <v>2188616.7039999999</v>
@@ -2340,16 +2420,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" t="s">
         <v>118</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>119</v>
       </c>
-      <c r="D16" t="s">
-        <v>120</v>
-      </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F16">
         <v>158.97999999999999</v>
@@ -2358,7 +2438,7 @@
         <v>1394.6110000000001</v>
       </c>
       <c r="H16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I16">
         <v>221715.25700000001</v>
@@ -2369,16 +2449,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" t="s">
         <v>122</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>123</v>
       </c>
-      <c r="D17" t="s">
-        <v>124</v>
-      </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F17">
         <v>210.95</v>
@@ -2387,7 +2467,7 @@
         <v>1904.8579999999999</v>
       </c>
       <c r="H17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I17">
         <v>401829.79499999998</v>
@@ -2411,7 +2491,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/PM_29_12_2020/Progress Monitoring Kishoregonj/Package Histry.xlsx
+++ b/PM_29_12_2020/Progress Monitoring Kishoregonj/Package Histry.xlsx
@@ -13,6 +13,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AZ$64</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$5:$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="132">
   <si>
     <t>Haor Flood Management &amp; Livelihood Improvement Project</t>
   </si>
@@ -422,6 +423,9 @@
   </si>
   <si>
     <t>KISH/PW-28 Lot-4</t>
+  </si>
+  <si>
+    <t>SUNAM/PW-07</t>
   </si>
 </sst>
 </file>
@@ -894,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="145" zoomScaleNormal="70" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A63" zoomScale="145" zoomScaleNormal="70" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1935,10 +1939,20 @@
       <c r="G63" s="5"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>49</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
+      <c r="D64" s="3">
+        <v>43474</v>
+      </c>
       <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
+      <c r="F64" s="3">
+        <v>507037</v>
+      </c>
       <c r="G64" s="3"/>
     </row>
   </sheetData>

--- a/PM_29_12_2020/Progress Monitoring Kishoregonj/Package Histry.xlsx
+++ b/PM_29_12_2020/Progress Monitoring Kishoregonj/Package Histry.xlsx
@@ -898,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A63" zoomScale="145" zoomScaleNormal="70" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A27" zoomScale="145" zoomScaleNormal="70" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
